--- a/DOWNLOADS/EDITAIS/U_986475_E_900542025_29-09-2025_09h30m/U_986475_E_900542025_29-09-2025_09h30m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_986475_E_900542025_29-09-2025_09h30m/U_986475_E_900542025_29-09-2025_09h30m_master.xlsx
@@ -22,6 +22,9 @@
     <t>DESCRICAO</t>
   </si>
   <si>
+    <t>REFERENCIA</t>
+  </si>
+  <si>
     <t>QTDE</t>
   </si>
   <si>
@@ -46,10 +49,7 @@
     <t>Fonte alimentação ininterrupta Fonte Alimentação Ininterrupta Tipo: No-Break, Tensão Entrada: Bivolt AutomáticoV, Tensão Saída: Bivolt 110/220V, Tipo Alarme: Audiovisual, Características Adicionais: Garantia Mínima De 12 Meses, Tipo Onda: Senoidal Pura, Software: Com Software De Gerenciamento Em Português, Autonomia Bateria: 15 Min Em Plena Carga, Capacidade Nominal: 3,2, Características Adicionais 1: 6 Tomadas Padrão Abnt</t>
   </si>
   <si>
-    <t>1503,97</t>
-  </si>
-  <si>
-    <t>22559,55</t>
+    <t>IA NÃO RESPONDEU</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -416,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,30 +447,36 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2">
+        <v>1503.97</v>
+      </c>
+      <c r="F2">
+        <v>22559.55</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/DOWNLOADS/EDITAIS/U_986475_E_900542025_29-09-2025_09h30m/U_986475_E_900542025_29-09-2025_09h30m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_986475_E_900542025_29-09-2025_09h30m/U_986475_E_900542025_29-09-2025_09h30m_master.xlsx
@@ -49,7 +49,7 @@
     <t>Fonte alimentação ininterrupta Fonte Alimentação Ininterrupta Tipo: No-Break, Tensão Entrada: Bivolt AutomáticoV, Tensão Saída: Bivolt 110/220V, Tipo Alarme: Audiovisual, Características Adicionais: Garantia Mínima De 12 Meses, Tipo Onda: Senoidal Pura, Software: Com Software De Gerenciamento Em Português, Autonomia Bateria: 15 Min Em Plena Carga, Capacidade Nominal: 3,2, Características Adicionais 1: 6 Tomadas Padrão Abnt</t>
   </si>
   <si>
-    <t>IA NÃO RESPONDEU</t>
+    <t>IA FALHOU EM RETORNAR Nº</t>
   </si>
   <si>
     <t>Unidade</t>
